--- a/00.data/merged_uncertainty_indices.xlsx
+++ b/00.data/merged_uncertainty_indices.xlsx
@@ -389,7 +389,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D788"/>
+  <dimension ref="A1:D789"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -8332,6 +8332,9 @@
       <c r="B786">
         <v>487.9087540102344</v>
       </c>
+      <c r="C786">
+        <v>77997.67999999999</v>
+      </c>
       <c r="D786">
         <v>723.132241310427</v>
       </c>
@@ -8343,12 +8346,23 @@
       <c r="B787">
         <v>359.000838513209</v>
       </c>
+      <c r="C787">
+        <v>84305.33</v>
+      </c>
       <c r="D787">
         <v>472.512178148921</v>
       </c>
     </row>
     <row r="788" spans="1:4">
-      <c r="A788" s="1"/>
+      <c r="A788" s="2">
+        <v>45839</v>
+      </c>
+      <c r="D788">
+        <v>554.85</v>
+      </c>
+    </row>
+    <row r="789" spans="1:4">
+      <c r="A789" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
